--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Vcam1-Itga9.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Vcam1-Itga9.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.75409564293172</v>
+        <v>7.312497333333334</v>
       </c>
       <c r="H2">
-        <v>3.75409564293172</v>
+        <v>21.937492</v>
       </c>
       <c r="I2">
-        <v>0.03319955205189667</v>
+        <v>0.05970572560549242</v>
       </c>
       <c r="J2">
-        <v>0.03319955205189667</v>
+        <v>0.05970572560549242</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.32087666112309</v>
+        <v>1.752878</v>
       </c>
       <c r="N2">
-        <v>1.32087666112309</v>
+        <v>5.258634</v>
       </c>
       <c r="O2">
-        <v>0.1413715668889013</v>
+        <v>0.1377607590022273</v>
       </c>
       <c r="P2">
-        <v>0.1413715668889013</v>
+        <v>0.1377607590022273</v>
       </c>
       <c r="Q2">
-        <v>4.95869731837239</v>
+        <v>12.81791570065867</v>
       </c>
       <c r="R2">
-        <v>4.95869731837239</v>
+        <v>115.361241305928</v>
       </c>
       <c r="S2">
-        <v>0.004693472693586272</v>
+        <v>0.008225106076191353</v>
       </c>
       <c r="T2">
-        <v>0.004693472693586272</v>
+        <v>0.008225106076191353</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.75409564293172</v>
+        <v>7.312497333333334</v>
       </c>
       <c r="H3">
-        <v>3.75409564293172</v>
+        <v>21.937492</v>
       </c>
       <c r="I3">
-        <v>0.03319955205189667</v>
+        <v>0.05970572560549242</v>
       </c>
       <c r="J3">
-        <v>0.03319955205189667</v>
+        <v>0.05970572560549242</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.98664895049035</v>
+        <v>3.076282333333333</v>
       </c>
       <c r="N3">
-        <v>2.98664895049035</v>
+        <v>9.228847</v>
       </c>
       <c r="O3">
-        <v>0.3196568266403543</v>
+        <v>0.2417686736584878</v>
       </c>
       <c r="P3">
-        <v>0.3196568266403543</v>
+        <v>0.2417686736584878</v>
       </c>
       <c r="Q3">
-        <v>11.21216581200242</v>
+        <v>22.49530635908044</v>
       </c>
       <c r="R3">
-        <v>11.21216581200242</v>
+        <v>202.457757231724</v>
       </c>
       <c r="S3">
-        <v>0.01061246345479055</v>
+        <v>0.01443497408945752</v>
       </c>
       <c r="T3">
-        <v>0.01061246345479055</v>
+        <v>0.01443497408945752</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.75409564293172</v>
+        <v>7.312497333333334</v>
       </c>
       <c r="H4">
-        <v>3.75409564293172</v>
+        <v>21.937492</v>
       </c>
       <c r="I4">
-        <v>0.03319955205189667</v>
+        <v>0.05970572560549242</v>
       </c>
       <c r="J4">
-        <v>0.03319955205189667</v>
+        <v>0.05970572560549242</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.51479437242924</v>
+        <v>7.303088666666667</v>
       </c>
       <c r="N4">
-        <v>4.51479437242924</v>
+        <v>21.909266</v>
       </c>
       <c r="O4">
-        <v>0.4832120767951377</v>
+        <v>0.5739583917309499</v>
       </c>
       <c r="P4">
-        <v>0.4832120767951377</v>
+        <v>0.5739583917309499</v>
       </c>
       <c r="Q4">
-        <v>16.94896988226926</v>
+        <v>53.40381640009689</v>
       </c>
       <c r="R4">
-        <v>16.94896988226926</v>
+        <v>480.634347600872</v>
       </c>
       <c r="S4">
-        <v>0.01604242449566527</v>
+        <v>0.03426860224565782</v>
       </c>
       <c r="T4">
-        <v>0.01604242449566527</v>
+        <v>0.03426860224565782</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.75409564293172</v>
+        <v>7.312497333333334</v>
       </c>
       <c r="H5">
-        <v>3.75409564293172</v>
+        <v>21.937492</v>
       </c>
       <c r="I5">
-        <v>0.03319955205189667</v>
+        <v>0.05970572560549242</v>
       </c>
       <c r="J5">
-        <v>0.03319955205189667</v>
+        <v>0.05970572560549242</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.520977895375448</v>
+        <v>0.5918243333333334</v>
       </c>
       <c r="N5">
-        <v>0.520977895375448</v>
+        <v>1.775473</v>
       </c>
       <c r="O5">
-        <v>0.05575952967560668</v>
+        <v>0.04651217560833507</v>
       </c>
       <c r="P5">
-        <v>0.05575952967560668</v>
+        <v>0.04651217560833507</v>
       </c>
       <c r="Q5">
-        <v>1.955800847092707</v>
+        <v>4.327713859301778</v>
       </c>
       <c r="R5">
-        <v>1.955800847092707</v>
+        <v>38.94942473371601</v>
       </c>
       <c r="S5">
-        <v>0.001851191407854581</v>
+        <v>0.002777043194185731</v>
       </c>
       <c r="T5">
-        <v>0.001851191407854581</v>
+        <v>0.002777043194185731</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.6726321598774</v>
+        <v>29.68221266666667</v>
       </c>
       <c r="H6">
-        <v>29.6726321598774</v>
+        <v>89.046638</v>
       </c>
       <c r="I6">
-        <v>0.2624115604948509</v>
+        <v>0.242351957758873</v>
       </c>
       <c r="J6">
-        <v>0.2624115604948509</v>
+        <v>0.242351957758873</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.32087666112309</v>
+        <v>1.752878</v>
       </c>
       <c r="N6">
-        <v>1.32087666112309</v>
+        <v>5.258634</v>
       </c>
       <c r="O6">
-        <v>0.1413715668889013</v>
+        <v>0.1377607590022273</v>
       </c>
       <c r="P6">
-        <v>0.1413715668889013</v>
+        <v>0.1377607590022273</v>
       </c>
       <c r="Q6">
-        <v>39.19388729407248</v>
+        <v>52.02929757472133</v>
       </c>
       <c r="R6">
-        <v>39.19388729407248</v>
+        <v>468.263678172492</v>
       </c>
       <c r="S6">
-        <v>0.03709753347691879</v>
+        <v>0.03338658964653807</v>
       </c>
       <c r="T6">
-        <v>0.03709753347691879</v>
+        <v>0.03338658964653807</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>29.6726321598774</v>
+        <v>29.68221266666667</v>
       </c>
       <c r="H7">
-        <v>29.6726321598774</v>
+        <v>89.046638</v>
       </c>
       <c r="I7">
-        <v>0.2624115604948509</v>
+        <v>0.242351957758873</v>
       </c>
       <c r="J7">
-        <v>0.2624115604948509</v>
+        <v>0.242351957758873</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.98664895049035</v>
+        <v>3.076282333333333</v>
       </c>
       <c r="N7">
-        <v>2.98664895049035</v>
+        <v>9.228847</v>
       </c>
       <c r="O7">
-        <v>0.3196568266403543</v>
+        <v>0.2417686736584878</v>
       </c>
       <c r="P7">
-        <v>0.3196568266403543</v>
+        <v>0.2417686736584878</v>
       </c>
       <c r="Q7">
-        <v>88.62173569858405</v>
+        <v>91.31086644070956</v>
       </c>
       <c r="R7">
-        <v>88.62173569858405</v>
+        <v>821.797797966386</v>
       </c>
       <c r="S7">
-        <v>0.08388164670152738</v>
+        <v>0.05859311138590058</v>
       </c>
       <c r="T7">
-        <v>0.08388164670152738</v>
+        <v>0.05859311138590058</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>29.6726321598774</v>
+        <v>29.68221266666667</v>
       </c>
       <c r="H8">
-        <v>29.6726321598774</v>
+        <v>89.046638</v>
       </c>
       <c r="I8">
-        <v>0.2624115604948509</v>
+        <v>0.242351957758873</v>
       </c>
       <c r="J8">
-        <v>0.2624115604948509</v>
+        <v>0.242351957758873</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.51479437242924</v>
+        <v>7.303088666666667</v>
       </c>
       <c r="N8">
-        <v>4.51479437242924</v>
+        <v>21.909266</v>
       </c>
       <c r="O8">
-        <v>0.4832120767951377</v>
+        <v>0.5739583917309499</v>
       </c>
       <c r="P8">
-        <v>0.4832120767951377</v>
+        <v>0.5739583917309499</v>
       </c>
       <c r="Q8">
-        <v>133.9658326905773</v>
+        <v>216.7718309275231</v>
       </c>
       <c r="R8">
-        <v>133.9658326905773</v>
+        <v>1950.946478347708</v>
       </c>
       <c r="S8">
-        <v>0.1268004351217698</v>
+        <v>0.1390999399081299</v>
       </c>
       <c r="T8">
-        <v>0.1268004351217698</v>
+        <v>0.1390999399081298</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>29.6726321598774</v>
+        <v>29.68221266666667</v>
       </c>
       <c r="H9">
-        <v>29.6726321598774</v>
+        <v>89.046638</v>
       </c>
       <c r="I9">
-        <v>0.2624115604948509</v>
+        <v>0.242351957758873</v>
       </c>
       <c r="J9">
-        <v>0.2624115604948509</v>
+        <v>0.242351957758873</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.520977895375448</v>
+        <v>0.5918243333333334</v>
       </c>
       <c r="N9">
-        <v>0.520977895375448</v>
+        <v>1.775473</v>
       </c>
       <c r="O9">
-        <v>0.05575952967560668</v>
+        <v>0.04651217560833507</v>
       </c>
       <c r="P9">
-        <v>0.05575952967560668</v>
+        <v>0.04651217560833507</v>
       </c>
       <c r="Q9">
-        <v>15.45878545290276</v>
+        <v>17.56665572330823</v>
       </c>
       <c r="R9">
-        <v>15.45878545290276</v>
+        <v>158.099901509774</v>
       </c>
       <c r="S9">
-        <v>0.01463194519463489</v>
+        <v>0.0112723168183045</v>
       </c>
       <c r="T9">
-        <v>0.01463194519463489</v>
+        <v>0.0112723168183045</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.40009466295379</v>
+        <v>11.06470466666667</v>
       </c>
       <c r="H10">
-        <v>7.40009466295379</v>
+        <v>33.194114</v>
       </c>
       <c r="I10">
-        <v>0.06544314565194087</v>
+        <v>0.09034208022509747</v>
       </c>
       <c r="J10">
-        <v>0.06544314565194087</v>
+        <v>0.09034208022509749</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.32087666112309</v>
+        <v>1.752878</v>
       </c>
       <c r="N10">
-        <v>1.32087666112309</v>
+        <v>5.258634</v>
       </c>
       <c r="O10">
-        <v>0.1413715668889013</v>
+        <v>0.1377607590022273</v>
       </c>
       <c r="P10">
-        <v>0.1413715668889013</v>
+        <v>0.1377607590022273</v>
       </c>
       <c r="Q10">
-        <v>9.774612330397201</v>
+        <v>19.39507738669733</v>
       </c>
       <c r="R10">
-        <v>9.774612330397201</v>
+        <v>174.555696480276</v>
       </c>
       <c r="S10">
-        <v>0.009251800042953472</v>
+        <v>0.01244559354164954</v>
       </c>
       <c r="T10">
-        <v>0.009251800042953472</v>
+        <v>0.01244559354164954</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.40009466295379</v>
+        <v>11.06470466666667</v>
       </c>
       <c r="H11">
-        <v>7.40009466295379</v>
+        <v>33.194114</v>
       </c>
       <c r="I11">
-        <v>0.06544314565194087</v>
+        <v>0.09034208022509747</v>
       </c>
       <c r="J11">
-        <v>0.06544314565194087</v>
+        <v>0.09034208022509749</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.98664895049035</v>
+        <v>3.076282333333333</v>
       </c>
       <c r="N11">
-        <v>2.98664895049035</v>
+        <v>9.228847</v>
       </c>
       <c r="O11">
-        <v>0.3196568266403543</v>
+        <v>0.2417686736584878</v>
       </c>
       <c r="P11">
-        <v>0.3196568266403543</v>
+        <v>0.2417686736584878</v>
       </c>
       <c r="Q11">
-        <v>22.10148495864018</v>
+        <v>34.03815548961755</v>
       </c>
       <c r="R11">
-        <v>22.10148495864018</v>
+        <v>306.343399406558</v>
       </c>
       <c r="S11">
-        <v>0.02091934826446192</v>
+        <v>0.02184188491157051</v>
       </c>
       <c r="T11">
-        <v>0.02091934826446192</v>
+        <v>0.02184188491157052</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.40009466295379</v>
+        <v>11.06470466666667</v>
       </c>
       <c r="H12">
-        <v>7.40009466295379</v>
+        <v>33.194114</v>
       </c>
       <c r="I12">
-        <v>0.06544314565194087</v>
+        <v>0.09034208022509747</v>
       </c>
       <c r="J12">
-        <v>0.06544314565194087</v>
+        <v>0.09034208022509749</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.51479437242924</v>
+        <v>7.303088666666667</v>
       </c>
       <c r="N12">
-        <v>4.51479437242924</v>
+        <v>21.909266</v>
       </c>
       <c r="O12">
-        <v>0.4832120767951377</v>
+        <v>0.5739583917309499</v>
       </c>
       <c r="P12">
-        <v>0.4832120767951377</v>
+        <v>0.5739583917309499</v>
       </c>
       <c r="Q12">
-        <v>33.40990573974742</v>
+        <v>80.80651925114711</v>
       </c>
       <c r="R12">
-        <v>33.40990573974742</v>
+        <v>727.2586732603239</v>
       </c>
       <c r="S12">
-        <v>0.03162291832248103</v>
+        <v>0.05185259507162539</v>
       </c>
       <c r="T12">
-        <v>0.03162291832248103</v>
+        <v>0.0518525950716254</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.40009466295379</v>
+        <v>11.06470466666667</v>
       </c>
       <c r="H13">
-        <v>7.40009466295379</v>
+        <v>33.194114</v>
       </c>
       <c r="I13">
-        <v>0.06544314565194087</v>
+        <v>0.09034208022509747</v>
       </c>
       <c r="J13">
-        <v>0.06544314565194087</v>
+        <v>0.09034208022509749</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.520977895375448</v>
+        <v>0.5918243333333334</v>
       </c>
       <c r="N13">
-        <v>0.520977895375448</v>
+        <v>1.775473</v>
       </c>
       <c r="O13">
-        <v>0.05575952967560668</v>
+        <v>0.04651217560833507</v>
       </c>
       <c r="P13">
-        <v>0.05575952967560668</v>
+        <v>0.04651217560833507</v>
       </c>
       <c r="Q13">
-        <v>3.855285743084751</v>
+        <v>6.548361462880222</v>
       </c>
       <c r="R13">
-        <v>3.855285743084751</v>
+        <v>58.935253165922</v>
       </c>
       <c r="S13">
-        <v>0.003649079022044447</v>
+        <v>0.004202006700252029</v>
       </c>
       <c r="T13">
-        <v>0.003649079022044447</v>
+        <v>0.004202006700252029</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>72.2498731795101</v>
+        <v>74.41623166666666</v>
       </c>
       <c r="H14">
-        <v>72.2498731795101</v>
+        <v>223.248695</v>
       </c>
       <c r="I14">
-        <v>0.6389457418013116</v>
+        <v>0.6076002364105371</v>
       </c>
       <c r="J14">
-        <v>0.6389457418013116</v>
+        <v>0.6076002364105371</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.32087666112309</v>
+        <v>1.752878</v>
       </c>
       <c r="N14">
-        <v>1.32087666112309</v>
+        <v>5.258634</v>
       </c>
       <c r="O14">
-        <v>0.1413715668889013</v>
+        <v>0.1377607590022273</v>
       </c>
       <c r="P14">
-        <v>0.1413715668889013</v>
+        <v>0.1377607590022273</v>
       </c>
       <c r="Q14">
-        <v>95.433171251918</v>
+        <v>130.4425753314033</v>
       </c>
       <c r="R14">
-        <v>95.433171251918</v>
+        <v>1173.98317798263</v>
       </c>
       <c r="S14">
-        <v>0.09032876067544281</v>
+        <v>0.08370346973784833</v>
       </c>
       <c r="T14">
-        <v>0.09032876067544281</v>
+        <v>0.08370346973784833</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>72.2498731795101</v>
+        <v>74.41623166666666</v>
       </c>
       <c r="H15">
-        <v>72.2498731795101</v>
+        <v>223.248695</v>
       </c>
       <c r="I15">
-        <v>0.6389457418013116</v>
+        <v>0.6076002364105371</v>
       </c>
       <c r="J15">
-        <v>0.6389457418013116</v>
+        <v>0.6076002364105371</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.98664895049035</v>
+        <v>3.076282333333333</v>
       </c>
       <c r="N15">
-        <v>2.98664895049035</v>
+        <v>9.228847</v>
       </c>
       <c r="O15">
-        <v>0.3196568266403543</v>
+        <v>0.2417686736584878</v>
       </c>
       <c r="P15">
-        <v>0.3196568266403543</v>
+        <v>0.2417686736584878</v>
       </c>
       <c r="Q15">
-        <v>215.7850079046447</v>
+        <v>228.9253387894072</v>
       </c>
       <c r="R15">
-        <v>215.7850079046447</v>
+        <v>2060.328049104665</v>
       </c>
       <c r="S15">
-        <v>0.2042433682195744</v>
+        <v>0.1468987032715592</v>
       </c>
       <c r="T15">
-        <v>0.2042433682195744</v>
+        <v>0.1468987032715592</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>72.2498731795101</v>
+        <v>74.41623166666666</v>
       </c>
       <c r="H16">
-        <v>72.2498731795101</v>
+        <v>223.248695</v>
       </c>
       <c r="I16">
-        <v>0.6389457418013116</v>
+        <v>0.6076002364105371</v>
       </c>
       <c r="J16">
-        <v>0.6389457418013116</v>
+        <v>0.6076002364105371</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.51479437242924</v>
+        <v>7.303088666666667</v>
       </c>
       <c r="N16">
-        <v>4.51479437242924</v>
+        <v>21.909266</v>
       </c>
       <c r="O16">
-        <v>0.4832120767951377</v>
+        <v>0.5739583917309499</v>
       </c>
       <c r="P16">
-        <v>0.4832120767951377</v>
+        <v>0.5739583917309499</v>
       </c>
       <c r="Q16">
-        <v>326.1933208395785</v>
+        <v>543.4683381008743</v>
       </c>
       <c r="R16">
-        <v>326.1933208395785</v>
+        <v>4891.215042907869</v>
       </c>
       <c r="S16">
-        <v>0.3087462988552216</v>
+        <v>0.3487372545055368</v>
       </c>
       <c r="T16">
-        <v>0.3087462988552216</v>
+        <v>0.3487372545055368</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>72.2498731795101</v>
+        <v>74.41623166666666</v>
       </c>
       <c r="H17">
-        <v>72.2498731795101</v>
+        <v>223.248695</v>
       </c>
       <c r="I17">
-        <v>0.6389457418013116</v>
+        <v>0.6076002364105371</v>
       </c>
       <c r="J17">
-        <v>0.6389457418013116</v>
+        <v>0.6076002364105371</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.520977895375448</v>
+        <v>0.5918243333333334</v>
       </c>
       <c r="N17">
-        <v>0.520977895375448</v>
+        <v>1.775473</v>
       </c>
       <c r="O17">
-        <v>0.05575952967560668</v>
+        <v>0.04651217560833507</v>
       </c>
       <c r="P17">
-        <v>0.05575952967560668</v>
+        <v>0.04651217560833507</v>
       </c>
       <c r="Q17">
-        <v>37.6405868702042</v>
+        <v>44.04133669530389</v>
       </c>
       <c r="R17">
-        <v>37.6405868702042</v>
+        <v>396.372030257735</v>
       </c>
       <c r="S17">
-        <v>0.03562731405107276</v>
+        <v>0.02826080889559281</v>
       </c>
       <c r="T17">
-        <v>0.03562731405107276</v>
+        <v>0.02826080889559281</v>
       </c>
     </row>
   </sheetData>
